--- a/day-1.xlsx
+++ b/day-1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyaly\Desktop\nihon\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4499DD-9BAA-45B2-9E3E-A3DDF5E3B794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,23 +24,251 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>文法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～も同然だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>几乎等同于~；几乎跟~一样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>动词た型(の)も同然だ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／Nも同然だ／も同然の</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼女と三年間一緒に住んでたから、これは結婚生活も同然だ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～とは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居然；感叹，表达意外的心情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通型とは</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あんな静かなゆか先生があんなに怒るとは、何があっただろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～に越したことはない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有～更好；~是最好的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通型に越したことはない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結婚相手は、子供が好きの男性に越したことはない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aいかんによって（で、では）B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据；凭；要看A 来决定B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N(の)いかんによって</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明日の天気いかんによっては、試合は中止するかもしれまない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论~都</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N(の)いかんによらず</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／関わらず／問わず</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事情いかんによらず、授業には参加すべきだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V(ない)ずにはおかない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／Vないではおかない</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犯罪をみたら、警察に通報せずにおかないだろう</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～いかんによらず
+～いかんに関わらず
+～いかんに問わず</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ずにはすまない
+～ないではすまない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制；必须得做~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V(ない)ずにはすまない／Vないではすまない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>駐車違反をしたから、罰金を払わずにはすまない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～ずにはおかない
+～ないではおかない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～を禁じ得ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制；一定要~；非~不可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制；禁不住做~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nを禁じ得ない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本の料理文化に対する海外での人気の高さに驚きを禁じ得ないよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,11 +283,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +582,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.58203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="40.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="60.25" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/day-1.xlsx
+++ b/day-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyaly\Desktop\nihon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4499DD-9BAA-45B2-9E3E-A3DDF5E3B794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE085065-6EEB-4EB8-B3B5-018B1021DFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>文法</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -211,6 +211,99 @@
   </si>
   <si>
     <t>日本の料理文化に対する海外での人気の高さに驚きを禁じ得ないよ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常~；到了用语言无法形容的程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ったらない
+~といったらない
+~といったらありはしない
+~といったらありゃしない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>い形といったらない
+Nといったらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>あのラーメン屋の汚さ「きたなさ」といったらない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～極まる「きわまる」
+～極まりない</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极其~；非常~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N極まる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>／極まりない
+い形＋こと＋極まる／極まりない
+な形＋こと＋極まる／極まりない</t>
+    </r>
+  </si>
+  <si>
+    <t>彼は失礼極まりない態度に我慢できない
+いつも飲み会でセクハラに近い行為をする社長に不愉快極まる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>～の極みだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻重的强调；最高的；~之极</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nの極みだ「きわみだ」</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在の祭りの極みはオリンピックだろう
+ゆか先生に会えて、感激「かんげき」の極みだ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~の至り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻重的强调；最高の～之至</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nの至り</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ノーベル賞の授賞式に自分が出るなんて、光栄の至りでございました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -242,7 +335,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -285,23 +377,23 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,30 +675,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.58203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="40.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="60.25" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="27.58203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="40.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="60.25" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -614,119 +706,180 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
